--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-12-15" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,4 +459,107 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ayse</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21:29:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21:32:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aysegul koca</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21:46:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,18 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21:50:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2025-12-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-12-15" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,60 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aysegul</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20:52:42</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,84 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ayse</t>
+          <t>lilja</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21:29:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>21:31:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>21:32:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ac</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21:36:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>aysegul koca</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>21:38:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>21:46:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>21:50:45</t>
+          <t>21:54:34</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2025-12-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-12-16" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,4 +449,95 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tifa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>08:52:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>elif</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>09:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aysegul</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>09:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ayse</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:02:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aysegul</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10:11:34</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>